--- a/Squads/SC0/Hearts_Ross County_squad.xlsx
+++ b/Squads/SC0/Hearts_Ross County_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="205">
   <si>
     <t>Rk</t>
   </si>
@@ -74,144 +74,153 @@
     <t>Gls p90</t>
   </si>
   <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>235</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>79</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>181</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>176</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>217</t>
+    <t>202</t>
+  </si>
+  <si>
+    <t>208</t>
   </si>
   <si>
     <t>238</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>Lawrence Shankland</t>
   </si>
   <si>
+    <t>Connor Randall</t>
+  </si>
+  <si>
     <t>Kacper Łopata</t>
   </si>
   <si>
@@ -227,7 +236,10 @@
     <t>Kye Rowles</t>
   </si>
   <si>
-    <t>Connor Randall</t>
+    <t>Ronan Hale</t>
+  </si>
+  <si>
+    <t>Ryan Leak</t>
   </si>
   <si>
     <t>Jordan White</t>
@@ -254,18 +266,18 @@
     <t>Gerald Taylor</t>
   </si>
   <si>
+    <t>Kenneth Vargas</t>
+  </si>
+  <si>
+    <t>Elijah Campbell</t>
+  </si>
+  <si>
     <t>Noah Chilvers</t>
   </si>
   <si>
-    <t>Ronan Hale</t>
-  </si>
-  <si>
     <t>George Harmon</t>
   </si>
   <si>
-    <t>Ryan Leak</t>
-  </si>
-  <si>
     <t>Will Nightingale</t>
   </si>
   <si>
@@ -287,6 +299,9 @@
     <t>Alan Forrest</t>
   </si>
   <si>
+    <t>Adam Forrester</t>
+  </si>
+  <si>
     <t>Craig Gordon</t>
   </si>
   <si>
@@ -302,9 +317,6 @@
     <t>Blair Spittal</t>
   </si>
   <si>
-    <t>Kenneth Vargas</t>
-  </si>
-  <si>
     <t>Scott Allardice</t>
   </si>
   <si>
@@ -314,9 +326,6 @@
     <t>James Brown</t>
   </si>
   <si>
-    <t>Elijah Campbell</t>
-  </si>
-  <si>
     <t>Aidan Denholm</t>
   </si>
   <si>
@@ -344,16 +353,25 @@
     <t>Alex Samuel</t>
   </si>
   <si>
+    <t>Charlie Telfer</t>
+  </si>
+  <si>
     <t>sct SCO</t>
   </si>
   <si>
+    <t>eng ENG</t>
+  </si>
+  <si>
     <t>pl POL</t>
   </si>
   <si>
     <t>au AUS</t>
   </si>
   <si>
-    <t>eng ENG</t>
+    <t>ie IRL</t>
+  </si>
+  <si>
+    <t>wls WAL</t>
   </si>
   <si>
     <t>cd COD</t>
@@ -365,12 +383,6 @@
     <t>cr CRC</t>
   </si>
   <si>
-    <t>ie IRL</t>
-  </si>
-  <si>
-    <t>wls WAL</t>
-  </si>
-  <si>
     <t>nir NIR</t>
   </si>
   <si>
@@ -389,12 +401,12 @@
     <t>FW,MF</t>
   </si>
   <si>
+    <t>MF</t>
+  </si>
+  <si>
     <t>DF</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
     <t>DF,MF</t>
   </si>
   <si>
@@ -404,6 +416,9 @@
     <t>MF,DF</t>
   </si>
   <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
     <t>GK</t>
   </si>
   <si>
@@ -413,139 +428,145 @@
     <t>Ross County</t>
   </si>
   <si>
-    <t>29-046</t>
-  </si>
-  <si>
-    <t>23-029</t>
-  </si>
-  <si>
-    <t>26-110</t>
-  </si>
-  <si>
-    <t>30-064</t>
-  </si>
-  <si>
-    <t>25-278</t>
-  </si>
-  <si>
-    <t>26-093</t>
-  </si>
-  <si>
-    <t>28-340</t>
-  </si>
-  <si>
-    <t>32-234</t>
-  </si>
-  <si>
-    <t>26-016</t>
+    <t>29-054</t>
+  </si>
+  <si>
+    <t>28-348</t>
+  </si>
+  <si>
+    <t>23-037</t>
+  </si>
+  <si>
+    <t>26-118</t>
+  </si>
+  <si>
+    <t>30-072</t>
   </si>
   <si>
     <t>25-286</t>
   </si>
   <si>
-    <t>29-365</t>
-  </si>
-  <si>
-    <t>28-309</t>
-  </si>
-  <si>
-    <t>21-266</t>
-  </si>
-  <si>
-    <t>21-254</t>
-  </si>
-  <si>
-    <t>23-120</t>
-  </si>
-  <si>
-    <t>23-216</t>
-  </si>
-  <si>
-    <t>26-017</t>
-  </si>
-  <si>
-    <t>23-292</t>
-  </si>
-  <si>
-    <t>26-210</t>
-  </si>
-  <si>
-    <t>29-054</t>
-  </si>
-  <si>
-    <t>28-104</t>
-  </si>
-  <si>
-    <t>22-082</t>
-  </si>
-  <si>
-    <t>33-170</t>
-  </si>
-  <si>
-    <t>32-091</t>
-  </si>
-  <si>
-    <t>22-304</t>
-  </si>
-  <si>
-    <t>28-016</t>
-  </si>
-  <si>
-    <t>41-269</t>
-  </si>
-  <si>
-    <t>29-119</t>
-  </si>
-  <si>
-    <t>29-270</t>
-  </si>
-  <si>
-    <t>23-044</t>
-  </si>
-  <si>
-    <t>28-281</t>
-  </si>
-  <si>
-    <t>22-161</t>
-  </si>
-  <si>
-    <t>26-178</t>
-  </si>
-  <si>
-    <t>28-199</t>
-  </si>
-  <si>
-    <t>26-113</t>
-  </si>
-  <si>
-    <t>20-054</t>
-  </si>
-  <si>
-    <t>20-321</t>
-  </si>
-  <si>
-    <t>25-198</t>
-  </si>
-  <si>
-    <t>19-295</t>
-  </si>
-  <si>
-    <t>32-075</t>
-  </si>
-  <si>
-    <t>23-127</t>
-  </si>
-  <si>
-    <t>25-102</t>
-  </si>
-  <si>
-    <t>22-145</t>
-  </si>
-  <si>
-    <t>18-319</t>
-  </si>
-  <si>
-    <t>29-005</t>
+    <t>26-101</t>
+  </si>
+  <si>
+    <t>26-025</t>
+  </si>
+  <si>
+    <t>26-218</t>
+  </si>
+  <si>
+    <t>32-242</t>
+  </si>
+  <si>
+    <t>26-024</t>
+  </si>
+  <si>
+    <t>25-294</t>
+  </si>
+  <si>
+    <t>30-007</t>
+  </si>
+  <si>
+    <t>28-317</t>
+  </si>
+  <si>
+    <t>21-274</t>
+  </si>
+  <si>
+    <t>21-262</t>
+  </si>
+  <si>
+    <t>23-128</t>
+  </si>
+  <si>
+    <t>22-169</t>
+  </si>
+  <si>
+    <t>20-062</t>
+  </si>
+  <si>
+    <t>23-224</t>
+  </si>
+  <si>
+    <t>23-300</t>
+  </si>
+  <si>
+    <t>29-062</t>
+  </si>
+  <si>
+    <t>28-112</t>
+  </si>
+  <si>
+    <t>22-090</t>
+  </si>
+  <si>
+    <t>33-178</t>
+  </si>
+  <si>
+    <t>32-099</t>
+  </si>
+  <si>
+    <t>22-312</t>
+  </si>
+  <si>
+    <t>28-024</t>
+  </si>
+  <si>
+    <t>19-186</t>
+  </si>
+  <si>
+    <t>41-277</t>
+  </si>
+  <si>
+    <t>29-127</t>
+  </si>
+  <si>
+    <t>29-278</t>
+  </si>
+  <si>
+    <t>23-052</t>
+  </si>
+  <si>
+    <t>28-289</t>
+  </si>
+  <si>
+    <t>26-186</t>
+  </si>
+  <si>
+    <t>28-207</t>
+  </si>
+  <si>
+    <t>26-121</t>
+  </si>
+  <si>
+    <t>20-329</t>
+  </si>
+  <si>
+    <t>25-206</t>
+  </si>
+  <si>
+    <t>19-303</t>
+  </si>
+  <si>
+    <t>32-083</t>
+  </si>
+  <si>
+    <t>23-135</t>
+  </si>
+  <si>
+    <t>25-110</t>
+  </si>
+  <si>
+    <t>22-153</t>
+  </si>
+  <si>
+    <t>18-327</t>
+  </si>
+  <si>
+    <t>29-013</t>
+  </si>
+  <si>
+    <t>29-091</t>
   </si>
   <si>
     <t>1995</t>
@@ -566,28 +587,34 @@
     <t>2003</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>1991</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>1982</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
     <t>1999</t>
   </si>
   <si>
-    <t>2005</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>6</t>
@@ -596,13 +623,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
+    <t>1</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -721,49 +745,49 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>207.0</v>
+        <v>215.0</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K2" t="n">
-        <v>530.0</v>
+        <v>620.0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N2" t="n">
         <v>1.0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0</v>
@@ -778,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -786,37 +810,37 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>257.0</v>
+        <v>196.0</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J3" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K3" t="n">
-        <v>250.0</v>
+        <v>607.0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -851,37 +875,37 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>60.0</v>
+        <v>269.0</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K4" t="n">
-        <v>236.0</v>
+        <v>340.0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -902,7 +926,7 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -916,37 +940,37 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>117.0</v>
+        <v>61.0</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K5" t="n">
-        <v>360.0</v>
+        <v>293.0</v>
       </c>
       <c r="L5" t="n">
-        <v>4.0</v>
+        <v>3.3</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
@@ -981,37 +1005,37 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>183.0</v>
+        <v>123.0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J6" t="n">
         <v>5.0</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0</v>
+        <v>450.0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>5.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
@@ -1046,37 +1070,37 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>197.0</v>
+        <v>190.0</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="J7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K7" t="n">
-        <v>360.0</v>
+        <v>404.0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.0</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1111,37 +1135,37 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>189.0</v>
+        <v>205.0</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="J8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="K8" t="n">
-        <v>520.0</v>
+        <v>450.0</v>
       </c>
       <c r="L8" t="n">
-        <v>5.8</v>
+        <v>5.0</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
@@ -1176,52 +1200,52 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>248.0</v>
+        <v>95.0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="K9" t="n">
-        <v>363.0</v>
+        <v>566.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.0</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" t="n">
         <v>1.0</v>
@@ -1233,7 +1257,7 @@
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10">
@@ -1241,58 +1265,58 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0</v>
+        <v>131.0</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="J10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>167.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1306,64 +1330,64 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>62.0</v>
+        <v>260.0</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.0</v>
       </c>
-      <c r="K11" t="n">
-        <v>229.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.0</v>
-      </c>
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1371,37 +1395,37 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>88.0</v>
+        <v>18.0</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="J12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K12" t="n">
-        <v>343.0</v>
+        <v>257.0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
@@ -1436,49 +1460,49 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>115.0</v>
+        <v>63.0</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K13" t="n">
-        <v>360.0</v>
+        <v>253.0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.0</v>
+        <v>2.8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O13" t="n">
         <v>1.0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
@@ -1493,7 +1517,7 @@
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1501,37 +1525,37 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>181.0</v>
+        <v>92.0</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>118.0</v>
+        <v>432.0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
@@ -1566,49 +1590,49 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>199.0</v>
+        <v>120.0</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K15" t="n">
-        <v>86.0</v>
+        <v>450.0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -1623,7 +1647,7 @@
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1631,37 +1655,37 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>227.0</v>
+        <v>188.0</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n">
-        <v>363.0</v>
+        <v>119.0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.0</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
@@ -1696,46 +1720,46 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>48.0</v>
+        <v>207.0</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="J17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K17" t="n">
-        <v>221.0</v>
+        <v>86.0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>1.0</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" t="n">
         <v>0.0</v>
@@ -1761,55 +1785,55 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>91.0</v>
+        <v>235.0</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="J18" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="K18" t="n">
-        <v>499.0</v>
+        <v>363.0</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>4.0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" t="n">
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" t="n">
         <v>1.0</v>
@@ -1818,7 +1842,7 @@
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.36</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1826,37 +1850,37 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>94.0</v>
+        <v>249.0</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="J19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K19" t="n">
-        <v>364.0</v>
+        <v>443.0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.0</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
@@ -1891,37 +1915,37 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>125.0</v>
+        <v>43.0</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J20" t="n">
         <v>3.0</v>
       </c>
       <c r="K20" t="n">
-        <v>346.0</v>
+        <v>281.0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
@@ -1956,46 +1980,46 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>168.0</v>
+        <v>49.0</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J21" t="n">
         <v>3.0</v>
       </c>
       <c r="K21" t="n">
-        <v>270.0</v>
+        <v>278.0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.0</v>
+        <v>3.1</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
@@ -2021,49 +2045,49 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>250.0</v>
+        <v>98.0</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="J22" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="K22" t="n">
-        <v>540.0</v>
+        <v>364.0</v>
       </c>
       <c r="L22" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -2078,7 +2102,7 @@
         <v>0.0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -2086,46 +2110,46 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>22.0</v>
+        <v>175.0</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J23" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K23" t="n">
-        <v>410.0</v>
+        <v>270.0</v>
       </c>
       <c r="L23" t="n">
-        <v>4.6</v>
+        <v>3.0</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.0</v>
@@ -2137,7 +2161,7 @@
         <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -2151,49 +2175,49 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>24.0</v>
+        <v>262.0</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="K24" t="n">
-        <v>34.0</v>
+        <v>630.0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4</v>
+        <v>7.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
@@ -2202,13 +2226,13 @@
         <v>0.0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
@@ -2216,46 +2240,46 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>50.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K25" t="n">
-        <v>180.0</v>
+        <v>410.0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.0</v>
+        <v>4.6</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -2281,37 +2305,37 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>67.0</v>
+        <v>25.0</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
         <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
@@ -2346,37 +2370,37 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>76.0</v>
+        <v>51.0</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="J27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K27" t="n">
-        <v>101.0</v>
+        <v>180.0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.1</v>
+        <v>2.0</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
@@ -2411,37 +2435,37 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>84.0</v>
+        <v>68.0</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J28" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>360.0</v>
+        <v>20.0</v>
       </c>
       <c r="L28" t="n">
-        <v>4.0</v>
+        <v>0.2</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -2476,49 +2500,49 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>92.0</v>
+        <v>77.0</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H29" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K29" t="n">
-        <v>270.0</v>
+        <v>167.0</v>
       </c>
       <c r="L29" t="n">
-        <v>3.0</v>
+        <v>1.9</v>
       </c>
       <c r="M29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
@@ -2533,7 +2557,7 @@
         <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -2541,37 +2565,37 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>149.0</v>
+        <v>79.0</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="n">
-        <v>176.0</v>
+        <v>89.0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
@@ -2606,49 +2630,49 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>177.0</v>
+        <v>88.0</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K31" t="n">
-        <v>195.0</v>
+        <v>450.0</v>
       </c>
       <c r="L31" t="n">
-        <v>2.2</v>
+        <v>5.0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" t="n">
         <v>0.0</v>
@@ -2663,7 +2687,7 @@
         <v>0.0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.46</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -2671,49 +2695,49 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>217.0</v>
+        <v>96.0</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J32" t="n">
         <v>3.0</v>
       </c>
       <c r="K32" t="n">
-        <v>252.0</v>
+        <v>270.0</v>
       </c>
       <c r="L32" t="n">
-        <v>2.8</v>
+        <v>3.0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" t="n">
         <v>1.0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
@@ -2728,7 +2752,7 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="33">
@@ -2736,37 +2760,37 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>238.0</v>
+        <v>155.0</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I33" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="J33" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K33" t="n">
-        <v>386.0</v>
+        <v>209.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
@@ -2801,49 +2825,49 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>5.0</v>
+        <v>184.0</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I34" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="J34" t="n">
         <v>1.0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.0</v>
+        <v>195.0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q34" t="n">
         <v>0.0</v>
@@ -2858,7 +2882,7 @@
         <v>0.0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="35">
@@ -2866,46 +2890,46 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>28.0</v>
+        <v>225.0</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H35" t="s">
         <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0</v>
+        <v>285.0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" t="n">
         <v>0.0</v>
@@ -2914,7 +2938,7 @@
         <v>0.0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S35" t="n">
         <v>0.0</v>
@@ -2931,37 +2955,37 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I36" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="J36" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K36" t="n">
-        <v>380.0</v>
+        <v>101.0</v>
       </c>
       <c r="L36" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="M36" t="n">
         <v>0.0</v>
@@ -2996,37 +3020,37 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>42.0</v>
+        <v>29.0</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I37" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J37" t="n">
         <v>2.0</v>
       </c>
       <c r="K37" t="n">
-        <v>191.0</v>
+        <v>143.0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="M37" t="n">
         <v>0.0</v>
@@ -3044,7 +3068,7 @@
         <v>0.0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S37" t="n">
         <v>0.0</v>
@@ -3061,46 +3085,46 @@
         <v>56</v>
       </c>
       <c r="B38" t="n">
-        <v>57.0</v>
+        <v>31.0</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H38" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I38" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K38" t="n">
-        <v>263.0</v>
+        <v>403.0</v>
       </c>
       <c r="L38" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M38" t="n">
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38" t="n">
         <v>0.0</v>
@@ -3126,46 +3150,46 @@
         <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>69.0</v>
+        <v>58.0</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H39" t="s">
         <v>190</v>
       </c>
       <c r="I39" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K39" t="n">
-        <v>176.0</v>
+        <v>263.0</v>
       </c>
       <c r="L39" t="n">
-        <v>2.0</v>
+        <v>2.9</v>
       </c>
       <c r="M39" t="n">
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P39" t="n">
         <v>0.0</v>
@@ -3191,46 +3215,46 @@
         <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>89.0</v>
+        <v>70.0</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I40" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="J40" t="n">
         <v>3.0</v>
       </c>
       <c r="K40" t="n">
-        <v>219.0</v>
+        <v>243.0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M40" t="n">
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P40" t="n">
         <v>0.0</v>
@@ -3256,46 +3280,46 @@
         <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>122.0</v>
+        <v>93.0</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H41" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J41" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="K41" t="n">
-        <v>540.0</v>
+        <v>222.0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.0</v>
+        <v>2.5</v>
       </c>
       <c r="M41" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P41" t="n">
         <v>0.0</v>
@@ -3321,37 +3345,37 @@
         <v>60</v>
       </c>
       <c r="B42" t="n">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I42" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J42" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="K42" t="n">
-        <v>184.0</v>
+        <v>630.0</v>
       </c>
       <c r="L42" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="M42" t="n">
         <v>0.0</v>
@@ -3386,46 +3410,46 @@
         <v>61</v>
       </c>
       <c r="B43" t="n">
-        <v>169.0</v>
+        <v>133.0</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="J43" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K43" t="n">
-        <v>269.0</v>
+        <v>217.0</v>
       </c>
       <c r="L43" t="n">
-        <v>3.0</v>
+        <v>2.4</v>
       </c>
       <c r="M43" t="n">
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P43" t="n">
         <v>0.0</v>
@@ -3451,46 +3475,46 @@
         <v>62</v>
       </c>
       <c r="B44" t="n">
-        <v>192.0</v>
+        <v>176.0</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I44" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K44" t="n">
-        <v>10.0</v>
+        <v>359.0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1</v>
+        <v>4.0</v>
       </c>
       <c r="M44" t="n">
         <v>0.0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P44" t="n">
         <v>0.0</v>
@@ -3516,34 +3540,34 @@
         <v>63</v>
       </c>
       <c r="B45" t="n">
-        <v>194.0</v>
+        <v>199.0</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H45" t="s">
         <v>191</v>
       </c>
       <c r="I45" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J45" t="n">
         <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="L45" t="n">
         <v>0.1</v>
@@ -3581,64 +3605,194 @@
         <v>64</v>
       </c>
       <c r="B46" t="n">
-        <v>200.0</v>
+        <v>202.0</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
         <v>132</v>
       </c>
-      <c r="G46" t="s">
-        <v>177</v>
-      </c>
-      <c r="H46" t="s">
-        <v>178</v>
-      </c>
-      <c r="I46" t="s">
-        <v>194</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O47" t="n">
         <v>2.0</v>
       </c>
-      <c r="P46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.08</v>
+      <c r="P47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
